--- a/Thesis/FraMCoS-X/Presentation/Research_Result_v2.xlsx
+++ b/Thesis/FraMCoS-X/Presentation/Research_Result_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Presentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengyushi/Documents/GitHub/Example/Thesis/FraMCoS-X/Presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5984D-74CD-473D-B334-C022AA4C0EEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB39A1-7A24-954D-9A9C-0C6895F1C54B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1116" windowWidth="9972" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="41">
   <si>
     <t>Resource</t>
   </si>
@@ -150,6 +150,14 @@
   <si>
     <t>Swamy &amp; Al-Asali (1988)</t>
   </si>
+  <si>
+    <t>Bouzabata et al. (2012)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brunetaud et al. (2008)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -159,14 +167,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -174,7 +182,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -216,8 +224,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -233,7 +241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,24 +561,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="59.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="10" width="27.33203125" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="14" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2047,7 +2057,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2434,7 +2444,7 @@
         <v>-2.0560747663550601E-2</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" ref="N41:N68" si="2">1-M41</f>
+        <f t="shared" ref="N41:N64" si="2">1-M41</f>
         <v>1.0205607476635505</v>
       </c>
     </row>
@@ -2539,7 +2549,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -2971,7 +2981,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3034,364 +3044,388 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
       <c r="E60">
-        <v>1.4853113979999999</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
+      <c r="G60">
+        <v>31.12068966</v>
+      </c>
+      <c r="H60">
+        <v>31.12068966</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60:J68" si="3">1-I60</f>
+        <v>1</v>
+      </c>
       <c r="K60">
-        <v>26.335514020000002</v>
+        <v>28.399311529999999</v>
       </c>
       <c r="L60">
-        <v>46.5</v>
+        <v>28.399311529999999</v>
       </c>
       <c r="M60">
-        <v>0.43364485981308398</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <f t="shared" si="2"/>
-        <v>0.56635514018691602</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="1" customFormat="1">
+      <c r="A61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E61">
-        <v>1.539365452</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>27.204672899999998</v>
-      </c>
-      <c r="L61">
-        <v>46.5</v>
-      </c>
-      <c r="M61">
-        <v>0.41495327102803697</v>
-      </c>
-      <c r="N61">
+      <c r="E61" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>33.103448280000002</v>
+      </c>
+      <c r="H61" s="1">
+        <v>31.12068966</v>
+      </c>
+      <c r="I61" s="1">
+        <v>-6.3711911357342194E-2</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0637119113573421</v>
+      </c>
+      <c r="K61" s="1">
+        <v>29.604130810000001</v>
+      </c>
+      <c r="L61" s="1">
+        <v>28.399311529999999</v>
+      </c>
+      <c r="M61" s="1">
+        <v>-4.2424242424241101E-2</v>
+      </c>
+      <c r="N61" s="1">
         <f t="shared" si="2"/>
-        <v>0.58504672897196297</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" t="s">
-        <v>19</v>
+        <v>1.0424242424242411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="1" customFormat="1">
+      <c r="A62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E62">
-        <v>1.555816686</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>25.553271030000001</v>
-      </c>
-      <c r="L62">
-        <v>46.5</v>
-      </c>
-      <c r="M62">
-        <v>0.45046728971962602</v>
-      </c>
-      <c r="N62">
+      <c r="E62" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>38.793103449999997</v>
+      </c>
+      <c r="H62" s="1">
+        <v>31.12068966</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-0.24653739612188499</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2465373961218851</v>
+      </c>
+      <c r="K62" s="1">
+        <v>28.31325301</v>
+      </c>
+      <c r="L62" s="1">
+        <v>28.399311529999999</v>
+      </c>
+      <c r="M62" s="1">
+        <v>3.0303030303044601E-3</v>
+      </c>
+      <c r="N62" s="1">
         <f t="shared" si="2"/>
-        <v>0.54953271028037398</v>
+        <v>0.99696969696969551</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="E63">
-        <v>1.689776733</v>
+        <v>0.2</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
+      <c r="G63">
+        <v>30.086206900000001</v>
+      </c>
+      <c r="H63">
+        <v>31.12068966</v>
+      </c>
+      <c r="I63">
+        <v>3.3240997229917198E-2</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>0.96675900277008275</v>
+      </c>
       <c r="K63">
-        <v>27.030841120000002</v>
+        <v>21.51462995</v>
       </c>
       <c r="L63">
-        <v>46.5</v>
+        <v>28.399311529999999</v>
       </c>
       <c r="M63">
-        <v>0.41869158878504698</v>
+        <v>0.24242424242424301</v>
       </c>
       <c r="N63">
         <f t="shared" si="2"/>
-        <v>0.58130841121495302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" t="s">
+        <v>0.75757575757575701</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="1" customFormat="1">
+      <c r="A64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
+      <c r="E64" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>31.637931030000001</v>
+      </c>
+      <c r="H64" s="1">
         <v>31.12068966</v>
       </c>
-      <c r="H64">
-        <v>31.12068966</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <f t="shared" ref="J64:J72" si="3">1-I64</f>
-        <v>1</v>
-      </c>
-      <c r="K64">
+      <c r="I64" s="1">
+        <v>-1.6620498614960299E-2</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0166204986149603</v>
+      </c>
+      <c r="K64" s="1">
+        <v>24.784853699999999</v>
+      </c>
+      <c r="L64" s="1">
         <v>28.399311529999999</v>
       </c>
-      <c r="L64">
-        <v>28.399311529999999</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
+      <c r="M64" s="1">
+        <v>0.12727272727272701</v>
+      </c>
+      <c r="N64" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="1" customFormat="1">
-      <c r="A65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>0.87272727272727302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
       </c>
       <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1">
-        <v>33.103448280000002</v>
-      </c>
-      <c r="H65" s="1">
-        <v>31.12068966</v>
-      </c>
-      <c r="I65" s="1">
-        <v>-6.3711911357342194E-2</v>
-      </c>
-      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>48.5</v>
+      </c>
+      <c r="H65">
+        <v>52.4</v>
+      </c>
+      <c r="I65">
+        <v>7.4427480916030506E-2</v>
+      </c>
+      <c r="J65">
         <f t="shared" si="3"/>
-        <v>1.0637119113573421</v>
-      </c>
-      <c r="K65" s="1">
-        <v>29.604130810000001</v>
-      </c>
-      <c r="L65" s="1">
-        <v>28.399311529999999</v>
-      </c>
-      <c r="M65" s="1">
-        <v>-4.2424242424241101E-2</v>
-      </c>
-      <c r="N65" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0424242424242411</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" s="1" customFormat="1">
-      <c r="A66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>20</v>
+        <v>0.92557251908396954</v>
+      </c>
+      <c r="O65" t="s">
+        <v>14</v>
+      </c>
+      <c r="P65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
       </c>
       <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1">
-        <v>38.793103449999997</v>
-      </c>
-      <c r="H66" s="1">
-        <v>31.12068966</v>
-      </c>
-      <c r="I66" s="1">
-        <v>-0.24653739612188499</v>
-      </c>
-      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>45.1</v>
+      </c>
+      <c r="H66">
+        <v>52.4</v>
+      </c>
+      <c r="I66">
+        <v>0.13931297709923701</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="3"/>
-        <v>1.2465373961218851</v>
-      </c>
-      <c r="K66" s="1">
-        <v>28.31325301</v>
-      </c>
-      <c r="L66" s="1">
-        <v>28.399311529999999</v>
-      </c>
-      <c r="M66" s="1">
-        <v>3.0303030303044601E-3</v>
-      </c>
-      <c r="N66" s="1">
-        <f t="shared" si="2"/>
-        <v>0.99696969696969551</v>
+        <v>0.86068702290076304</v>
+      </c>
+      <c r="O66" t="s">
+        <v>14</v>
+      </c>
+      <c r="P66" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>0.2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>30.086206900000001</v>
+        <v>37.1</v>
       </c>
       <c r="H67">
-        <v>31.12068966</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="I67">
-        <v>3.3240997229917198E-2</v>
+        <v>8.8452088452088504E-2</v>
       </c>
       <c r="J67">
         <f t="shared" si="3"/>
-        <v>0.96675900277008275</v>
-      </c>
-      <c r="K67">
-        <v>21.51462995</v>
-      </c>
-      <c r="L67">
-        <v>28.399311529999999</v>
-      </c>
-      <c r="M67">
-        <v>0.24242424242424301</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="2"/>
-        <v>0.75757575757575701</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" s="1" customFormat="1">
-      <c r="A68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>20</v>
+        <v>0.91154791154791148</v>
+      </c>
+      <c r="O67" t="s">
+        <v>14</v>
+      </c>
+      <c r="P67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
       </c>
       <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0</v>
-      </c>
-      <c r="G68" s="1">
-        <v>31.637931030000001</v>
-      </c>
-      <c r="H68" s="1">
-        <v>31.12068966</v>
-      </c>
-      <c r="I68" s="1">
-        <v>-1.6620498614960299E-2</v>
-      </c>
-      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>0.1002</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>35.6</v>
+      </c>
+      <c r="H68">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="I68">
+        <v>0.12530712530712501</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="3"/>
-        <v>1.0166204986149603</v>
-      </c>
-      <c r="K68" s="1">
-        <v>24.784853699999999</v>
-      </c>
-      <c r="L68" s="1">
-        <v>28.399311529999999</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0.12727272727272701</v>
-      </c>
-      <c r="N68" s="1">
-        <f t="shared" si="2"/>
-        <v>0.87272727272727302</v>
+        <v>0.87469287469287504</v>
+      </c>
+      <c r="O68" t="s">
+        <v>14</v>
+      </c>
+      <c r="P68" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -3408,29 +3442,29 @@
         <v>17</v>
       </c>
       <c r="E69">
-        <v>4.2200000000000001E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
-      <c r="G69">
-        <v>48.5</v>
-      </c>
-      <c r="H69">
-        <v>52.4</v>
-      </c>
-      <c r="I69">
-        <v>7.4427480916030506E-2</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="3"/>
-        <v>0.92557251908396954</v>
+      <c r="K69">
+        <v>27.5</v>
+      </c>
+      <c r="L69">
+        <v>35</v>
+      </c>
+      <c r="M69">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="N69">
+        <f t="shared" ref="N69:N80" si="4">1-M69</f>
+        <v>0.78571428571428603</v>
       </c>
       <c r="O69" t="s">
         <v>14</v>
       </c>
       <c r="P69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -3447,415 +3481,443 @@
         <v>17</v>
       </c>
       <c r="E70">
-        <v>0.10100000000000001</v>
+        <v>0.1002</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70">
-        <v>45.1</v>
-      </c>
-      <c r="H70">
-        <v>52.4</v>
-      </c>
-      <c r="I70">
-        <v>0.13931297709923701</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="3"/>
-        <v>0.86068702290076304</v>
+      <c r="K70">
+        <v>22.4</v>
+      </c>
+      <c r="L70">
+        <v>35</v>
+      </c>
+      <c r="M70">
+        <v>0.36</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="4"/>
+        <v>0.64</v>
       </c>
       <c r="O70" t="s">
         <v>14</v>
       </c>
       <c r="P70" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="1" customFormat="1">
+      <c r="A71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71">
-        <v>4.02E-2</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>37.1</v>
-      </c>
-      <c r="H71">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="I71">
-        <v>8.8452088452088504E-2</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="3"/>
-        <v>0.91154791154791148</v>
-      </c>
-      <c r="O71" t="s">
-        <v>14</v>
-      </c>
-      <c r="P71" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G71" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="H71" s="1">
+        <v>51.15</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1.6617790811339201E-2</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" ref="J71:J98" si="5">1-I71</f>
+        <v>0.98338220918866082</v>
+      </c>
+      <c r="K71" s="1">
+        <v>34.69</v>
+      </c>
+      <c r="L71" s="1">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="M71" s="1">
+        <v>-6.9029275808936696E-2</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0690292758089366</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
       </c>
       <c r="E72">
-        <v>0.1002</v>
+        <v>0.27</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="G72">
-        <v>35.6</v>
+        <v>42.25</v>
       </c>
       <c r="H72">
-        <v>40.700000000000003</v>
+        <v>51.15</v>
       </c>
       <c r="I72">
-        <v>0.12530712530712501</v>
+        <v>0.173998044965787</v>
       </c>
       <c r="J72">
-        <f t="shared" si="3"/>
-        <v>0.87469287469287504</v>
-      </c>
-      <c r="O72" t="s">
-        <v>14</v>
-      </c>
-      <c r="P72" t="s">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>0.82600195503421303</v>
+      </c>
+      <c r="K72">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="L72">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="M72">
+        <v>9.4955489614243407E-3</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="4"/>
+        <v>0.99050445103857565</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
       </c>
       <c r="E73">
-        <v>4.02E-2</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="G73">
+        <v>54.9</v>
+      </c>
+      <c r="H73">
+        <v>57.25</v>
+      </c>
+      <c r="I73">
+        <v>4.1048034934497803E-2</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>0.95895196506550218</v>
       </c>
       <c r="K73">
-        <v>27.5</v>
+        <v>27.11</v>
       </c>
       <c r="L73">
-        <v>35</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="M73">
-        <v>0.214285714285714</v>
+        <v>0.201472754050074</v>
       </c>
       <c r="N73">
-        <f t="shared" ref="N73:N84" si="4">1-M73</f>
-        <v>0.78571428571428603</v>
-      </c>
-      <c r="O73" t="s">
-        <v>14</v>
-      </c>
-      <c r="P73" t="s">
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>0.79852724594992597</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
         <v>17</v>
       </c>
       <c r="E74">
-        <v>0.1002</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.113</v>
+      </c>
+      <c r="G74">
+        <v>44.9</v>
+      </c>
+      <c r="H74">
+        <v>63.45</v>
+      </c>
+      <c r="I74">
+        <v>0.29235618597320701</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="5"/>
+        <v>0.70764381402679299</v>
       </c>
       <c r="K74">
-        <v>22.4</v>
+        <v>15.33</v>
       </c>
       <c r="L74">
-        <v>35</v>
+        <v>35.25</v>
       </c>
       <c r="M74">
-        <v>0.36</v>
+        <v>0.56510638297872295</v>
       </c>
       <c r="N74">
         <f t="shared" si="4"/>
-        <v>0.64</v>
-      </c>
-      <c r="O74" t="s">
-        <v>14</v>
-      </c>
-      <c r="P74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="1" customFormat="1">
-      <c r="A75" s="1" t="s">
+        <v>0.43489361702127705</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>23</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="G75" s="1">
-        <v>50.3</v>
-      </c>
-      <c r="H75" s="1">
-        <v>51.15</v>
-      </c>
-      <c r="I75" s="1">
-        <v>1.6617790811339201E-2</v>
-      </c>
-      <c r="J75" s="1">
-        <f t="shared" ref="J75:J102" si="5">1-I75</f>
-        <v>0.98338220918866082</v>
-      </c>
-      <c r="K75" s="1">
-        <v>34.69</v>
-      </c>
-      <c r="L75" s="1">
-        <v>32.450000000000003</v>
-      </c>
-      <c r="M75" s="1">
-        <v>-6.9029275808936696E-2</v>
-      </c>
-      <c r="N75" s="1">
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F75">
+        <v>0.127</v>
+      </c>
+      <c r="G75">
+        <v>57</v>
+      </c>
+      <c r="H75">
+        <v>65.3</v>
+      </c>
+      <c r="I75">
+        <v>0.127105666156202</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="5"/>
+        <v>0.872894333843798</v>
+      </c>
+      <c r="K75">
+        <v>12.65</v>
+      </c>
+      <c r="L75">
+        <v>36.36</v>
+      </c>
+      <c r="M75">
+        <v>0.65209020902090198</v>
+      </c>
+      <c r="N75">
         <f t="shared" si="4"/>
-        <v>1.0690292758089366</v>
+        <v>0.34790979097909802</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
       </c>
       <c r="E76">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="F76">
-        <v>9.2999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G76">
-        <v>42.25</v>
+        <v>38.1</v>
       </c>
       <c r="H76">
         <v>51.15</v>
       </c>
       <c r="I76">
-        <v>0.173998044965787</v>
+        <v>0.25513196480938399</v>
       </c>
       <c r="J76">
         <f t="shared" si="5"/>
-        <v>0.82600195503421303</v>
+        <v>0.74486803519061606</v>
       </c>
       <c r="K76">
-        <v>33.380000000000003</v>
+        <v>8.85</v>
       </c>
       <c r="L76">
-        <v>33.700000000000003</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="M76">
-        <v>9.4955489614243407E-3</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="N76">
         <f t="shared" si="4"/>
-        <v>0.99050445103857565</v>
+        <v>0.27272727272727304</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
       </c>
       <c r="E77">
-        <v>0.40500000000000003</v>
+        <v>0.126</v>
       </c>
       <c r="F77">
-        <v>0.1</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="G77">
-        <v>54.9</v>
+        <v>27.5</v>
       </c>
       <c r="H77">
-        <v>57.25</v>
+        <v>51.15</v>
       </c>
       <c r="I77">
-        <v>4.1048034934497803E-2</v>
+        <v>0.462365591397849</v>
       </c>
       <c r="J77">
         <f t="shared" si="5"/>
-        <v>0.95895196506550218</v>
+        <v>0.53763440860215095</v>
       </c>
       <c r="K77">
-        <v>27.11</v>
+        <v>2.93</v>
       </c>
       <c r="L77">
-        <v>33.950000000000003</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="M77">
-        <v>0.201472754050074</v>
+        <v>0.91305637982195798</v>
       </c>
       <c r="N77">
         <f t="shared" si="4"/>
-        <v>0.79852724594992597</v>
+        <v>8.6943620178042025E-2</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
       </c>
       <c r="E78">
-        <v>0.40500000000000003</v>
+        <v>0.156</v>
       </c>
       <c r="F78">
-        <v>0.113</v>
+        <v>0.1</v>
       </c>
       <c r="G78">
-        <v>44.9</v>
+        <v>26.2</v>
       </c>
       <c r="H78">
-        <v>63.45</v>
+        <v>57.25</v>
       </c>
       <c r="I78">
-        <v>0.29235618597320701</v>
+        <v>0.54235807899999999</v>
       </c>
       <c r="J78">
         <f t="shared" si="5"/>
-        <v>0.70764381402679299</v>
+        <v>0.45764192100000001</v>
       </c>
       <c r="K78">
-        <v>15.33</v>
+        <v>2.89</v>
       </c>
       <c r="L78">
-        <v>35.25</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="M78">
-        <v>0.56510638297872295</v>
+        <v>0.91487481590574404</v>
       </c>
       <c r="N78">
         <f t="shared" si="4"/>
-        <v>0.43489361702127705</v>
+        <v>8.5125184094255957E-2</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
       </c>
       <c r="E79">
-        <v>0.40500000000000003</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="F79">
-        <v>0.127</v>
+        <v>0.113</v>
       </c>
       <c r="G79">
-        <v>57</v>
+        <v>26.4</v>
       </c>
       <c r="H79">
-        <v>65.3</v>
+        <v>63.45</v>
       </c>
       <c r="I79">
-        <v>0.127105666156202</v>
+        <v>0.58392434988179698</v>
       </c>
       <c r="J79">
         <f t="shared" si="5"/>
-        <v>0.872894333843798</v>
+        <v>0.41607565011820302</v>
       </c>
       <c r="K79">
-        <v>12.65</v>
+        <v>2.17</v>
       </c>
       <c r="L79">
-        <v>36.36</v>
+        <v>35.25</v>
       </c>
       <c r="M79">
-        <v>0.65209020902090198</v>
+        <v>0.93843971631205703</v>
       </c>
       <c r="N79">
         <f t="shared" si="4"/>
-        <v>0.34790979097909802</v>
+        <v>6.1560283687942974E-2</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -3872,44 +3934,44 @@
         <v>17</v>
       </c>
       <c r="E80">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="F80">
-        <v>0.06</v>
+        <v>0.127</v>
       </c>
       <c r="G80">
-        <v>38.1</v>
+        <v>26.5</v>
       </c>
       <c r="H80">
-        <v>51.15</v>
+        <v>65.3</v>
       </c>
       <c r="I80">
-        <v>0.25513196480938399</v>
+        <v>0.59418070444104099</v>
       </c>
       <c r="J80">
         <f t="shared" si="5"/>
-        <v>0.74486803519061606</v>
+        <v>0.40581929555895901</v>
       </c>
       <c r="K80">
-        <v>8.85</v>
+        <v>1.72</v>
       </c>
       <c r="L80">
-        <v>32.450000000000003</v>
+        <v>36.36</v>
       </c>
       <c r="M80">
-        <v>0.72727272727272696</v>
+        <v>0.95269526952695305</v>
       </c>
       <c r="N80">
         <f t="shared" si="4"/>
-        <v>0.27272727272727304</v>
+        <v>4.7304730473046952E-2</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3918,44 +3980,31 @@
         <v>17</v>
       </c>
       <c r="E81">
-        <v>0.126</v>
+        <v>0.316</v>
       </c>
       <c r="F81">
-        <v>9.2999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G81">
-        <v>27.5</v>
+        <v>44.5</v>
       </c>
       <c r="H81">
-        <v>51.15</v>
+        <v>60.1</v>
       </c>
       <c r="I81">
-        <v>0.462365591397849</v>
+        <v>0.25956738800000001</v>
       </c>
       <c r="J81">
         <f t="shared" si="5"/>
-        <v>0.53763440860215095</v>
-      </c>
-      <c r="K81">
-        <v>2.93</v>
-      </c>
-      <c r="L81">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="M81">
-        <v>0.91305637982195798</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="4"/>
-        <v>8.6943620178042025E-2</v>
+        <v>0.74043261199999999</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3964,44 +4013,31 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <v>0.156</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="F82">
-        <v>0.1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G82">
-        <v>26.2</v>
+        <v>39.9</v>
       </c>
       <c r="H82">
-        <v>57.25</v>
+        <v>61.9</v>
       </c>
       <c r="I82">
-        <v>0.54235807899999999</v>
+        <v>0.355411955</v>
       </c>
       <c r="J82">
         <f t="shared" si="5"/>
-        <v>0.45764192100000001</v>
-      </c>
-      <c r="K82">
-        <v>2.89</v>
-      </c>
-      <c r="L82">
-        <v>33.950000000000003</v>
-      </c>
-      <c r="M82">
-        <v>0.91487481590574404</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="4"/>
-        <v>8.5125184094255957E-2</v>
+        <v>0.644588045</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4010,44 +4046,31 @@
         <v>17</v>
       </c>
       <c r="E83">
-        <v>0.16600000000000001</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="F83">
-        <v>0.113</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G83">
-        <v>26.4</v>
+        <v>27.5</v>
       </c>
       <c r="H83">
-        <v>63.45</v>
+        <v>73.5</v>
       </c>
       <c r="I83">
-        <v>0.58392434988179698</v>
+        <v>0.62585033999999995</v>
       </c>
       <c r="J83">
         <f t="shared" si="5"/>
-        <v>0.41607565011820302</v>
-      </c>
-      <c r="K83">
-        <v>2.17</v>
-      </c>
-      <c r="L83">
-        <v>35.25</v>
-      </c>
-      <c r="M83">
-        <v>0.93843971631205703</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="4"/>
-        <v>6.1560283687942974E-2</v>
+        <v>0.37414966000000005</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -4056,36 +4079,23 @@
         <v>17</v>
       </c>
       <c r="E84">
-        <v>0.17</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F84">
-        <v>0.127</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G84">
-        <v>26.5</v>
+        <v>52.5</v>
       </c>
       <c r="H84">
-        <v>65.3</v>
+        <v>60.1</v>
       </c>
       <c r="I84">
-        <v>0.59418070444104099</v>
+        <v>0.12645590700000001</v>
       </c>
       <c r="J84">
         <f t="shared" si="5"/>
-        <v>0.40581929555895901</v>
-      </c>
-      <c r="K84">
-        <v>1.72</v>
-      </c>
-      <c r="L84">
-        <v>36.36</v>
-      </c>
-      <c r="M84">
-        <v>0.95269526952695305</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="4"/>
-        <v>4.7304730473046952E-2</v>
+        <v>0.87354409300000002</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4102,23 +4112,23 @@
         <v>17</v>
       </c>
       <c r="E85">
-        <v>0.316</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F85">
-        <v>3.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G85">
-        <v>44.5</v>
+        <v>50.5</v>
       </c>
       <c r="H85">
-        <v>60.1</v>
+        <v>61.9</v>
       </c>
       <c r="I85">
-        <v>0.25956738800000001</v>
+        <v>0.18416801299999999</v>
       </c>
       <c r="J85">
         <f t="shared" si="5"/>
-        <v>0.74043261199999999</v>
+        <v>0.81583198700000004</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4135,28 +4145,28 @@
         <v>17</v>
       </c>
       <c r="E86">
-        <v>0.88300000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="F86">
-        <v>1.7000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G86">
-        <v>39.9</v>
+        <v>44.5</v>
       </c>
       <c r="H86">
-        <v>61.9</v>
+        <v>73.5</v>
       </c>
       <c r="I86">
-        <v>0.355411955</v>
+        <v>0.39455782299999997</v>
       </c>
       <c r="J86">
         <f t="shared" si="5"/>
-        <v>0.644588045</v>
+        <v>0.60544217700000003</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
         <v>38</v>
@@ -4168,28 +4178,31 @@
         <v>17</v>
       </c>
       <c r="E87">
-        <v>1.6439999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="F87">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>27.5</v>
+        <v>0.91</v>
       </c>
       <c r="H87">
-        <v>73.5</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0.62585033999999995</v>
+        <v>0.09</v>
       </c>
       <c r="J87">
         <f t="shared" si="5"/>
-        <v>0.37414966000000005</v>
+        <v>0.91</v>
+      </c>
+      <c r="P87" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
         <v>38</v>
@@ -4201,28 +4214,31 @@
         <v>17</v>
       </c>
       <c r="E88">
-        <v>5.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F88">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>52.5</v>
+        <v>0.89</v>
       </c>
       <c r="H88">
-        <v>60.1</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0.12645590700000001</v>
+        <v>0.11</v>
       </c>
       <c r="J88">
         <f t="shared" si="5"/>
-        <v>0.87354409300000002</v>
+        <v>0.89</v>
+      </c>
+      <c r="P88" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
         <v>38</v>
@@ -4234,28 +4250,31 @@
         <v>17</v>
       </c>
       <c r="E89">
-        <v>2.3E-2</v>
+        <v>0.2</v>
       </c>
       <c r="F89">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>50.5</v>
+        <v>0.8</v>
       </c>
       <c r="H89">
-        <v>61.9</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0.18416801299999999</v>
+        <v>0.2</v>
       </c>
       <c r="J89">
         <f t="shared" si="5"/>
-        <v>0.81583198700000004</v>
+        <v>0.8</v>
+      </c>
+      <c r="P89" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
         <v>38</v>
@@ -4267,23 +4286,26 @@
         <v>17</v>
       </c>
       <c r="E90">
-        <v>0.623</v>
+        <v>0.4</v>
       </c>
       <c r="F90">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>44.5</v>
+        <v>0.73</v>
       </c>
       <c r="H90">
-        <v>73.5</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0.39455782299999997</v>
+        <v>0.27</v>
       </c>
       <c r="J90">
         <f t="shared" si="5"/>
-        <v>0.60544217700000003</v>
+        <v>0.73</v>
+      </c>
+      <c r="P90" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4300,23 +4322,23 @@
         <v>17</v>
       </c>
       <c r="E91">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="J91">
         <f t="shared" si="5"/>
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="P91" t="s">
         <v>25</v>
@@ -4336,23 +4358,23 @@
         <v>17</v>
       </c>
       <c r="E92">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>0.11</v>
+        <v>0.38</v>
       </c>
       <c r="J92">
         <f t="shared" si="5"/>
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="P92" t="s">
         <v>25</v>
@@ -4372,23 +4394,23 @@
         <v>17</v>
       </c>
       <c r="E93">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
       <c r="J93">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="P93" t="s">
         <v>25</v>
@@ -4396,7 +4418,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B94" t="s">
         <v>38</v>
@@ -4408,23 +4430,23 @@
         <v>17</v>
       </c>
       <c r="E94">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="J94">
         <f t="shared" si="5"/>
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="P94" t="s">
         <v>25</v>
@@ -4432,7 +4454,7 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B95" t="s">
         <v>38</v>
@@ -4444,23 +4466,23 @@
         <v>17</v>
       </c>
       <c r="E95">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="J95">
         <f t="shared" si="5"/>
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="P95" t="s">
         <v>25</v>
@@ -4468,7 +4490,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B96" t="s">
         <v>38</v>
@@ -4480,23 +4502,23 @@
         <v>17</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="J96">
         <f t="shared" si="5"/>
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="P96" t="s">
         <v>25</v>
@@ -4504,7 +4526,7 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B97" t="s">
         <v>38</v>
@@ -4516,23 +4538,23 @@
         <v>17</v>
       </c>
       <c r="E97">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.38</v>
+        <v>0.7</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0.62</v>
+        <v>0.3</v>
       </c>
       <c r="J97">
         <f t="shared" si="5"/>
-        <v>0.38</v>
+        <v>0.7</v>
       </c>
       <c r="P97" t="s">
         <v>25</v>
@@ -4552,23 +4574,23 @@
         <v>17</v>
       </c>
       <c r="E98">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="J98">
         <f t="shared" si="5"/>
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="P98" t="s">
         <v>25</v>
@@ -4576,7 +4598,7 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B99" t="s">
         <v>38</v>
@@ -4588,31 +4610,28 @@
         <v>17</v>
       </c>
       <c r="E99">
-        <v>0.1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
-      <c r="G99">
-        <v>0.89</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0.11</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="5"/>
-        <v>0.89</v>
-      </c>
-      <c r="P99" t="s">
-        <v>25</v>
+      <c r="K99">
+        <v>37.5</v>
+      </c>
+      <c r="L99">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M99">
+        <v>3.3505155000000002E-2</v>
+      </c>
+      <c r="N99">
+        <f t="shared" ref="N99:N124" si="6">1-M99</f>
+        <v>0.96649484500000005</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
         <v>38</v>
@@ -4624,31 +4643,28 @@
         <v>17</v>
       </c>
       <c r="E100">
-        <v>0.2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
-      <c r="G100">
-        <v>0.85</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
-        <v>0.15</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="5"/>
-        <v>0.85</v>
-      </c>
-      <c r="P100" t="s">
-        <v>25</v>
+      <c r="K100">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="L100">
+        <v>41</v>
+      </c>
+      <c r="M100">
+        <v>0.202439024</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="6"/>
+        <v>0.79756097599999998</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B101" t="s">
         <v>38</v>
@@ -4660,31 +4676,28 @@
         <v>17</v>
       </c>
       <c r="E101">
-        <v>0.4</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0.7</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101">
-        <v>0.3</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
-      </c>
-      <c r="P101" t="s">
-        <v>25</v>
+        <v>1E-3</v>
+      </c>
+      <c r="K101">
+        <v>23.7</v>
+      </c>
+      <c r="L101">
+        <v>41.1</v>
+      </c>
+      <c r="M101">
+        <v>0.42335766400000002</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="6"/>
+        <v>0.57664233599999992</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
         <v>38</v>
@@ -4696,26 +4709,23 @@
         <v>17</v>
       </c>
       <c r="E102">
-        <v>0.6</v>
+        <v>0.316</v>
       </c>
       <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0.6</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
-        <v>0.4</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="P102" t="s">
-        <v>25</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K102">
+        <v>20.8</v>
+      </c>
+      <c r="L102">
+        <v>42.5</v>
+      </c>
+      <c r="M102">
+        <v>0.51058823499999995</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="6"/>
+        <v>0.48941176500000005</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -4732,23 +4742,23 @@
         <v>17</v>
       </c>
       <c r="E103">
-        <v>4.0000000000000001E-3</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K103">
-        <v>37.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L103">
-        <v>38.799999999999997</v>
+        <v>44.2</v>
       </c>
       <c r="M103">
-        <v>3.3505155000000002E-2</v>
+        <v>0.55656108599999998</v>
       </c>
       <c r="N103">
-        <f t="shared" ref="N103:N128" si="6">1-M103</f>
-        <v>0.96649484500000005</v>
+        <f t="shared" si="6"/>
+        <v>0.44343891400000002</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -4765,28 +4775,28 @@
         <v>17</v>
       </c>
       <c r="E104">
-        <v>7.0999999999999994E-2</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="K104">
-        <v>32.700000000000003</v>
+        <v>10.4</v>
       </c>
       <c r="L104">
-        <v>41</v>
+        <v>45.5</v>
       </c>
       <c r="M104">
-        <v>0.202439024</v>
+        <v>0.77142857099999995</v>
       </c>
       <c r="N104">
         <f t="shared" si="6"/>
-        <v>0.79756097599999998</v>
+        <v>0.22857142900000005</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B105" t="s">
         <v>38</v>
@@ -4798,28 +4808,28 @@
         <v>17</v>
       </c>
       <c r="E105">
-        <v>9.7000000000000003E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F105">
         <v>1E-3</v>
       </c>
       <c r="K105">
-        <v>23.7</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="L105">
         <v>41.1</v>
       </c>
       <c r="M105">
-        <v>0.42335766400000002</v>
+        <v>2.189781E-2</v>
       </c>
       <c r="N105">
         <f t="shared" si="6"/>
-        <v>0.57664233599999992</v>
+        <v>0.97810218999999998</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B106" t="s">
         <v>38</v>
@@ -4831,28 +4841,28 @@
         <v>17</v>
       </c>
       <c r="E106">
-        <v>0.316</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F106">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="K106">
-        <v>20.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="L106">
         <v>42.5</v>
       </c>
       <c r="M106">
-        <v>0.51058823499999995</v>
+        <v>0.04</v>
       </c>
       <c r="N106">
         <f t="shared" si="6"/>
-        <v>0.48941176500000005</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B107" t="s">
         <v>38</v>
@@ -4864,28 +4874,28 @@
         <v>17</v>
       </c>
       <c r="E107">
-        <v>0.88300000000000001</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F107">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="K107">
-        <v>19.600000000000001</v>
+        <v>24</v>
       </c>
       <c r="L107">
         <v>44.2</v>
       </c>
       <c r="M107">
-        <v>0.55656108599999998</v>
+        <v>0.45701357500000001</v>
       </c>
       <c r="N107">
         <f t="shared" si="6"/>
-        <v>0.44343891400000002</v>
+        <v>0.54298642500000005</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B108" t="s">
         <v>38</v>
@@ -4897,28 +4907,28 @@
         <v>17</v>
       </c>
       <c r="E108">
-        <v>1.6439999999999999</v>
+        <v>0.623</v>
       </c>
       <c r="F108">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="K108">
-        <v>10.4</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="L108">
         <v>45.5</v>
       </c>
       <c r="M108">
-        <v>0.77142857099999995</v>
+        <v>0.58461538499999999</v>
       </c>
       <c r="N108">
         <f t="shared" si="6"/>
-        <v>0.22857142900000005</v>
+        <v>0.41538461500000001</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B109" t="s">
         <v>38</v>
@@ -4930,28 +4940,28 @@
         <v>17</v>
       </c>
       <c r="E109">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>40.200000000000003</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="L109">
-        <v>41.1</v>
+        <v>1</v>
       </c>
       <c r="M109">
-        <v>2.189781E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="N109">
         <f t="shared" si="6"/>
-        <v>0.97810218999999998</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B110" t="s">
         <v>38</v>
@@ -4963,28 +4973,28 @@
         <v>17</v>
       </c>
       <c r="E110">
-        <v>2.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="F110">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>40.799999999999997</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="L110">
-        <v>42.5</v>
+        <v>1</v>
       </c>
       <c r="M110">
-        <v>0.04</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="N110">
         <f t="shared" si="6"/>
-        <v>0.96</v>
+        <v>0.79699999999999993</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B111" t="s">
         <v>38</v>
@@ -4996,28 +5006,28 @@
         <v>17</v>
       </c>
       <c r="E111">
-        <v>0.25900000000000001</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F111">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>24</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="L111">
-        <v>44.2</v>
+        <v>1</v>
       </c>
       <c r="M111">
-        <v>0.45701357500000001</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="N111">
         <f t="shared" si="6"/>
-        <v>0.54298642500000005</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B112" t="s">
         <v>38</v>
@@ -5029,23 +5039,23 @@
         <v>17</v>
       </c>
       <c r="E112">
-        <v>0.623</v>
+        <v>0.316</v>
       </c>
       <c r="F112">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>18.899999999999999</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="L112">
-        <v>45.5</v>
+        <v>1</v>
       </c>
       <c r="M112">
-        <v>0.58461538499999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="N112">
         <f t="shared" si="6"/>
-        <v>0.41538461500000001</v>
+        <v>0.48899999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5062,23 +5072,23 @@
         <v>17</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0.95399999999999996</v>
+        <v>0.442</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113">
-        <v>4.5999999999999999E-2</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="N113">
         <f t="shared" si="6"/>
-        <v>0.95399999999999996</v>
+        <v>0.44199999999999995</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5095,23 +5105,23 @@
         <v>17</v>
       </c>
       <c r="E114">
-        <v>7.0999999999999994E-2</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0.79700000000000004</v>
+        <v>0.253</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114">
-        <v>0.20300000000000001</v>
+        <v>0.747</v>
       </c>
       <c r="N114">
         <f t="shared" si="6"/>
-        <v>0.79699999999999993</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5128,23 +5138,23 @@
         <v>17</v>
       </c>
       <c r="E115">
-        <v>9.7000000000000003E-2</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0.57699999999999996</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="M115">
-        <v>0.42299999999999999</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="N115">
         <f t="shared" si="6"/>
-        <v>0.57699999999999996</v>
+        <v>0.18100000000000005</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5161,28 +5171,28 @@
         <v>17</v>
       </c>
       <c r="E116">
-        <v>0.316</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0.48899999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116">
-        <v>0.51100000000000001</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="N116">
         <f t="shared" si="6"/>
-        <v>0.48899999999999999</v>
+        <v>0.22899999999999998</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B117" t="s">
         <v>38</v>
@@ -5194,28 +5204,28 @@
         <v>17</v>
       </c>
       <c r="E117">
-        <v>0.88300000000000001</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="K117">
-        <v>0.442</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117">
-        <v>0.55800000000000005</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N117">
         <f t="shared" si="6"/>
-        <v>0.44199999999999995</v>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B118" t="s">
         <v>38</v>
@@ -5227,28 +5237,28 @@
         <v>17</v>
       </c>
       <c r="E118">
-        <v>1.4419999999999999</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>0.253</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118">
-        <v>0.747</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="N118">
         <f t="shared" si="6"/>
-        <v>0.253</v>
+        <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B119" t="s">
         <v>38</v>
@@ -5260,28 +5270,28 @@
         <v>17</v>
       </c>
       <c r="E119">
-        <v>1.6180000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0.18099999999999999</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119">
-        <v>0.81899999999999995</v>
+        <v>2.3E-2</v>
       </c>
       <c r="N119">
         <f t="shared" si="6"/>
-        <v>0.18100000000000005</v>
+        <v>0.97699999999999998</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B120" t="s">
         <v>38</v>
@@ -5293,23 +5303,23 @@
         <v>17</v>
       </c>
       <c r="E120">
-        <v>1.6439999999999999</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0.22900000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120">
-        <v>0.77100000000000002</v>
+        <v>0.04</v>
       </c>
       <c r="N120">
         <f t="shared" si="6"/>
-        <v>0.22899999999999998</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5326,23 +5336,23 @@
         <v>17</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="K121">
-        <v>0.97299999999999998</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121">
-        <v>2.7E-2</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="N121">
         <f t="shared" si="6"/>
-        <v>0.97299999999999998</v>
+        <v>0.54299999999999993</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5359,23 +5369,23 @@
         <v>17</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="K122">
-        <v>0.96199999999999997</v>
+        <v>0.32</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122">
-        <v>3.7999999999999999E-2</v>
+        <v>0.68</v>
       </c>
       <c r="N122">
         <f t="shared" si="6"/>
-        <v>0.96199999999999997</v>
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5392,23 +5402,23 @@
         <v>17</v>
       </c>
       <c r="E123">
-        <v>5.0000000000000001E-3</v>
+        <v>0.625</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>0.97699999999999998</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123">
-        <v>2.3E-2</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="N123">
         <f t="shared" si="6"/>
-        <v>0.97699999999999998</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5425,153 +5435,21 @@
         <v>17</v>
       </c>
       <c r="E124">
-        <v>2.3E-2</v>
+        <v>0.623</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>0.96</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="L124">
         <v>1</v>
       </c>
       <c r="M124">
-        <v>0.04</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="N124">
-        <f t="shared" si="6"/>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="A125" t="s">
-        <v>33</v>
-      </c>
-      <c r="B125" t="s">
-        <v>38</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="L125">
-        <v>1</v>
-      </c>
-      <c r="M125">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="N125">
-        <f t="shared" si="6"/>
-        <v>0.54299999999999993</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126" t="s">
-        <v>33</v>
-      </c>
-      <c r="B126" t="s">
-        <v>38</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0.32</v>
-      </c>
-      <c r="L126">
-        <v>1</v>
-      </c>
-      <c r="M126">
-        <v>0.68</v>
-      </c>
-      <c r="N126">
-        <f t="shared" si="6"/>
-        <v>0.31999999999999995</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="A127" t="s">
-        <v>33</v>
-      </c>
-      <c r="B127" t="s">
-        <v>38</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127">
-        <v>0.625</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="L127">
-        <v>1</v>
-      </c>
-      <c r="M127">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="N127">
-        <f t="shared" si="6"/>
-        <v>0.40200000000000002</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128" t="s">
-        <v>33</v>
-      </c>
-      <c r="B128" t="s">
-        <v>38</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128">
-        <v>0.623</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="L128">
-        <v>1</v>
-      </c>
-      <c r="M128">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="N128">
         <f t="shared" si="6"/>
         <v>0.41600000000000004</v>
       </c>
@@ -5579,6 +5457,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5588,7 +5467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5601,7 +5480,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
